--- a/apps/tournament_activity/backend/templates/wards/23_江戸川区/個人戦_申込書フォーマット.xlsx
+++ b/apps/tournament_activity/backend/templates/wards/23_江戸川区/個人戦_申込書フォーマット.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>【大会名】　申込書</t>
   </si>
@@ -27,10 +27,19 @@
     <t xml:space="preserve"> 団　　体　　名</t>
   </si>
   <si>
+    <t>十条クラブ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 申 込 責 任 者</t>
   </si>
   <si>
+    <t>福田 敦</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 連 絡 先 電 話</t>
+  </si>
+  <si>
+    <t>090-8118-7936</t>
   </si>
   <si>
     <r>
@@ -338,13 +347,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -749,7 +758,9 @@
         <v>2</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -776,10 +787,12 @@
     </row>
     <row r="6" ht="24.0" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -806,10 +819,12 @@
     </row>
     <row r="7" ht="24.0" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -864,22 +879,22 @@
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1660,7 +1675,7 @@
     </row>
     <row r="37" ht="18.0" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1690,7 +1705,7 @@
     </row>
     <row r="38" ht="18.0" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1720,7 +1735,7 @@
     </row>
     <row r="39" ht="18.0" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
